--- a/Computer Setup (Data Entry & Mining).xlsx
+++ b/Computer Setup (Data Entry & Mining).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07c5b40719ada852/Documents/Portfolio Projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{DBA179E4-D5D2-411C-BE29-CBB9F71502BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C90BC5-E701-42F1-AEE1-E1F21BEA5ECF}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{DBA179E4-D5D2-411C-BE29-CBB9F71502BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{369A4743-9A6D-4DFA-A362-8BC178348B73}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F89C4D73-4B42-4BF8-B4C1-4D24FC443D7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{F89C4D73-4B42-4BF8-B4C1-4D24FC443D7E}"/>
   </bookViews>
   <sheets>
     <sheet name="The Business Case" sheetId="3" r:id="rId1"/>
@@ -38,8 +38,163 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Pius Ukiri</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{59E4D693-892C-4333-8FE9-BBAC0EC281FF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">CEO Instructions:
+Scroll Down and fill the summary statistcs from B26 - H26
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Pius Ukiri</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{A4A0926C-A7D4-4DE0-A66E-0F5893177217}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">CEO Instructions:
+Fill Colums I3 -I23 and J3 - J23 using the verticals and horizontal tables provided </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Pius Ukiri</author>
+  </authors>
+  <commentList>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{8581B972-FAA3-4EA9-906B-5A1BD56D28E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CEO Instructions:
+Fill this Column</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0" xr:uid="{D686DA3A-8220-40D9-B371-1FCAEA19A5DB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CEO Instructions:
+Fill these Columns</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M12" authorId="0" shapeId="0" xr:uid="{8913DBE5-1909-4FE5-92BA-3A9A092D4DDE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">CEO Instructions:
+Fill these Columns
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Pius Ukiri</author>
+  </authors>
+  <commentList>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{3318E87D-6903-4D70-81B3-E90D8B045229}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CEO Instructions:
+Fill J3 - J23 and K3 - K23 using the info given on this page. 
+Your function must contain the IF function.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Pius Ukiri</author>
+  </authors>
+  <commentList>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{7F66A09E-4E1D-4FFB-BD16-8A3969E3C4FE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CEO Instructions:
+Answer my special questions</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="66">
   <si>
     <t>Employees's Computers Data</t>
   </si>
@@ -246,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +432,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1227,19 +1395,19 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1420,6 +1588,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1719,7 +1891,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="350" row="0">
+  <wetp:taskpane dockstate="right" visibility="1" width="350" row="2">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1748,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397AD024-D6EB-4E6A-9809-CE57B838FEEF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1760,11 +1932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A80D910-D7D4-4D56-9AAC-906033C0EEF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A80D910-D7D4-4D56-9AAC-906033C0EEF6}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,9 +1980,7 @@
       <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2" s="21"/>
       <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
@@ -2498,15 +2668,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD4684A-9746-402B-AE28-8A29A327AFD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD4684A-9746-402B-AE28-8A29A327AFD4}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3371,15 +3542,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD138F-D77B-4848-8711-4C0D98C9C533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDD138F-D77B-4848-8711-4C0D98C9C533}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3437,10 +3609,10 @@
       <c r="H2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="95"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="22" t="s">
         <v>60</v>
       </c>
@@ -3471,7 +3643,7 @@
       <c r="H3" s="39">
         <v>16</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="94" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="23" t="s">
@@ -3508,7 +3680,7 @@
       <c r="H4" s="40">
         <v>2</v>
       </c>
-      <c r="J4" s="97"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="26" t="s">
         <v>17</v>
       </c>
@@ -3543,7 +3715,7 @@
       <c r="H5" s="40">
         <v>2</v>
       </c>
-      <c r="J5" s="98"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="27" t="s">
         <v>31</v>
       </c>
@@ -3608,10 +3780,10 @@
       <c r="H7" s="40">
         <v>8</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="95"/>
+      <c r="K7" s="98"/>
       <c r="L7" s="21" t="s">
         <v>41</v>
       </c>
@@ -3644,7 +3816,7 @@
       <c r="H8" s="40">
         <v>16</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="94" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="23" t="s">
@@ -3684,7 +3856,7 @@
       <c r="H9" s="40">
         <v>4</v>
       </c>
-      <c r="J9" s="97"/>
+      <c r="J9" s="95"/>
       <c r="K9" s="26" t="s">
         <v>17</v>
       </c>
@@ -3722,7 +3894,7 @@
       <c r="H10" s="40">
         <v>4</v>
       </c>
-      <c r="J10" s="98"/>
+      <c r="J10" s="96"/>
       <c r="K10" s="27" t="s">
         <v>31</v>
       </c>
@@ -3786,10 +3958,10 @@
       <c r="H12" s="40">
         <v>4</v>
       </c>
-      <c r="J12" s="94" t="s">
+      <c r="J12" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="95"/>
+      <c r="K12" s="98"/>
       <c r="L12" s="21" t="s">
         <v>43</v>
       </c>
@@ -3822,7 +3994,7 @@
       <c r="H13" s="40">
         <v>4</v>
       </c>
-      <c r="J13" s="96" t="s">
+      <c r="J13" s="94" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="23" t="s">
@@ -3862,7 +4034,7 @@
       <c r="H14" s="40">
         <v>4</v>
       </c>
-      <c r="J14" s="97"/>
+      <c r="J14" s="95"/>
       <c r="K14" s="26" t="s">
         <v>17</v>
       </c>
@@ -3900,7 +4072,7 @@
       <c r="H15" s="40">
         <v>2</v>
       </c>
-      <c r="J15" s="98"/>
+      <c r="J15" s="96"/>
       <c r="K15" s="27" t="s">
         <v>31</v>
       </c>
@@ -4132,15 +4304,16 @@
     <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17722E8E-F0A0-43AD-8334-1943648C5119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17722E8E-F0A0-43AD-8334-1943648C5119}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,15 +5121,16 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D22310-F32F-428B-A0C3-183495F9D24F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D22310-F32F-428B-A0C3-183495F9D24F}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5582,11 +5756,12 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<properties xmlns="http://schemas.myeducator.com/properties/myeducator/atlas_meta_I8g7DPjwfyUt">H4sIAAAAAAAAA91cC2/bOBL+KzoDB7SANxu1qbpndLtIbCl+5IU+9m5xXRS0TcdC9fBKchKjl/9+w4dESpZEmnaATQsUkUWRMyRnvo+aIfW9g9LUv41CHGWdXrQOgm4njOfrAHd63/nV12gdTnHS6XWO4d+bN3an21nFfpSlnd5xt5PAI3D1X3gcpym6hZodzw8CPLemG2uxjmaZH0dQJ0IhKfu4xDiz8IOfZqmFork1w0EAVwm2ZnG4CnCG4eE0wyvWatFCr5OSql+hzldah+iBEhSmRNcERbf4K0oStIFqncFJb3ICDwyc3ugt+Wsf90b2a3oFt2xyb/jK7g1t+xe4HMPlmFz+2eVSuLYXMYrSzuPjn49QkqH0G1NqjjPkgwa9zrs4sLLNCv+K3r8L/PejiPbHGpx0rXWKrWyJrf7156tPxUhYWWzNUDBbByhj5Wx8rXhhzQIfJiK1/IgWzFGGrBRnR6TlD3iBExzNWB02aPy5L50+rWiNBl86MIrBOoxIc1Q4KxmQpjI0DXBZvp8dQffnsV9M/9InpsA6/r8BGUN/Dr9PT8UUXhUKB/EMkU6lkk3YYBM4XcFN7MVJCHKgyq9E4Q/89gva+D8GJy87sv1wOUSQMKVP0Ic7FKwx6SwfWstPrSjOoKdJgmeZUAyK+LOpVFgY69EbYlgoW5OJA4t67BZCz7aELpjuZBbnmrJncQRmEaVsxkuSXzVK7jdKloTOY1wSG2yspLCHMzDeM2bHQpfCXFK5XCj0uqIQMW/8QGa+326cxF6WOFjl9jKPI0ysZ4GCFHc7d/4cx3nZQxiQXrIfMDoL/zb/BZ0h085+QI8/IoI57OcqiRdDSQTgkL/Y5L9kteEXztb8QTKoSsd0Jcf8+PmyxS2zOEMBWDiivoSgLnepfCCUXknM3DoN43WUHdgvXeGXZ2LaqbxPRG0Td3Rr3fFM5Y5us0u4pu54pumO7bILd4R51nPGM7Uzugpn7IOz9UvO6JacUSrf3Rklk0TUrJ65M3qSM57+7n44PXdbHBLd4QQmBqYCFgo4d0ptbxzRagaOSFr+nJLlyWpDVywrlGb0sQWscwq1QjC3JdjCzeWnbnEzIfTYpbXyW96of22lYDuFD6XW+UlvdNLq8Z7w+L6wrVPeJusb/CHmiviCa2cE8GoRoK9CAK/ZCz0FApw0eWJfEwHaZRcIwI1LDwX6ahTwFCgwAC8flFDAK6GAVK6j0KBJIWredOkLKoEJ0WU0USrBZJhk8aTUy2v145VPi5ul12EQ9zxuySnRouSDzxuNxhIaXZ7+p4RECx88mBSE6MEP12Hh7Su0IS9P5Jn8Fh8l6vo5Su20bgAE+dkYrdpAZCxAZCBs4xI9yN2Q1TdBkXEtigxUKDJu9uSx6TpioIki7bILFAGj0HPYgRpBxgoE8QAhvBKCjEsIIpXvvo4IUALumzXN+jP344nsx6OrBj/2o+frxxPhx67kxyD4gH48qfVjV+XHk2Zfmpj6savpx+2yhR+PrvT82FX78WRnP54czo/TEGzyx3XkgVMJoo28bWdexvdAytGmHDwDM8ijZ9YcL9A6yPC84rFURt+xYD00S/wMJz7KfbcqTfUOQOuQFzLi31Ec/cRlykqxLr2lTb2bvr+CQe1Zf8TrpLCpcA1TSTqMpimgBbSfCEPJligjEATdzcp2OHCIHlOqHKzqhHpzch/B7C1xwsSLgGEpKHH07ufp+9Y4oFMAjlcXB2TdJAFf+nLKp90kJujUgY6njAk6zXE5px10Gp3f040JtsouxwRHnqZsjaigowhEOCU95BCEo6lE42uHthIjQLdROTRZUkUq11HI1XgPGji9wdvG9yBWuu97UH3Uvmz9zxx7XacUJ60gb12kdJUA9fgr6B59L8yWMVS/X8Ym+FuWqIO+NOxpXfBobRsEu08Awa4BBAuN9XHYFTh8Loz6U3n8DwDDbi0Mnytjwc1Q6JrC8LluLLhVthwLroCw3ShZIxq8M/65e+DfuRqQVQrVhKcdZXi6WaFGQNZXyGlUxdGcJk+DFVyn5zazAis9BCtkra74zDnBc7bC9a28UAnY780K2zJ1mKESI1ewg/eWSL4nlyil9RPygsVf29mr+ou8yUs55J/f/CBC/qdyyP8jDfmTQZgCHeT9p89JCr08PDl5reRUR03lIesCP4l7cp9LBazfcIu0L26Lvhc0lyp5zhM8N9zKdlRXWkapjlqCGypTHc0k45kS3FA31dEqu5rq0CW5oUayYwcI94wgfKgmNpUS20zr7cG0QzWxqRSqSQE55imgoQ7JeWSzU3MKiJYeOgX0QxHc8JUtGO73i+vryeebEr+x3XIWAmrCcz+jUbbo1poi4qhxJHHEmX0MC6nXnPRgtvwkzdkmB9rAT5XZZRpWLgnLW0xwCA5P7sgB6YMyB4yHHnXIW9GYsh+osvpvNiCqgPyRMNo+3xJolZo1QXwQUAf5IxXkkzFowl1SZgb6I03QV0kvYJ9bq6Z0NeiTxtt3nTEDL6sj7zorynUUUhOAUqFzakH1yrAyHUV0Qkz5xtFGqC0eMETb3Oi3nb+cRaJQ88wxd2Afm0T5l8BAgMMe8pPKEFXj/xq7Z2sh62AbhERyYBu6mc5PAN0wrE+fFbCPC8weS5jNBox1GdYHfHjpO4BRTsA+rkPusTIpAEPQGJmHMjPkHuumBRTSzRIDY43EADTevl6n0yapIq/YaZmOIhrJAZUi0gb8em2kB3RU0koPAC0NYF3WmCDg5U+WIiiB1TPHblfG7j2zBDKg88HZGbhZ5KFu23V6UDSXkg0C0kWUCCzt29OgumuC6kaJBgnaJ8I7borAJtt/vGXQRsmGenyfKLMNLQjrGuP7RDffoJBuknGYaGQcdgdVdx9QnWjkHJSEs510qLDOTlmHiUbWYScOrGpT4cDm6dLKPAChuC2Ek5cfgnBoJGZV8dEfjnU8mXX2zkM0vkiY0k9lx99hmaeSzCBdydcW93625CEZ/lbx9JkMsiUSJpaOUVYevvQpMhnt9Pf3TGVITHqxlcvIbfIQPOrV8+iFMqnRwmSeMY9e6KY1FNJNExsXGomNnVjCM2SJC43kxu6k7u1D6hca6Q2VSjX5jbJKuyU4LrQSHOwUd3OKg5cfgksrpBHgO8zfWTCaLaUdjz8StY7lBEiFU3nu40vnD5wC/vmMR8Qed+LFtwmG8SP0SvZhwVD9tYZ1CFQ+Pnp9zNH0KobaFKrv/RTrkJ6U6SgT8NC/XTKw/k282rSB8VjKMlwKuxnJO/3xwwzjeWq9Pv6nCQqP6/MMl8rzLy2R/rEqz9B4ju5S9wSMQnqBwrqBqkuNIzCqiL4nR/TH5Yi+pxvRv9Q5PJd//6ERWYoHzKBlgMErQj/CxG0ofjTs2CeTAKufAIMTEKd55ngysBVb+Ju+hLHC8SooLdCXxNebzjnUbSGyy3uIGPjUIQaRt7043+MkgAik009k3POpFclfPjZPcRbANtiJWui7S+hf7NC5ktO1/AxE22xB/6Fz8DMxOyJg1+7duVKnA1o26tumu3eutNMB7dLN0gFXOukA1fYd2ymrUlrkap4VuNJJBygUKT7C06SN9ICOSnrpAAcWqS3nBXj5vrBfnw6gr+wKaHveBODaO58jIOivSBIcggvqVpCK/EEjSex7XKHKEdJhhacgCdeEJMyyCIIlroVTVc8rkDlumFI+HmZphVqeuFanFVpOEhjzxLV2WqFdukla4VonrbALS7jtLNGsiE4yYWeWcPdhiWudZMLuhyrsPU5VXOulFZye20JceflTHGrYijr/0BTm2Yc89nAYBuvWvs6Y0tfu5ypYHMYj9gdl5+yTik8R7zcgqr9BxF+w3s12xJ8m6SiJpMwMeACxGgnYg/q8euq7UWcCWs4YGFPfjXYmoF26aSbgRicTsAv9eYb0d6OTCdj9WIG9x7mCG51MwM6M7O3DyDd6mQAKOS2ZAFZ+yEyA7Lj5tp8SDbZ489/5ZITo93WIEuKC93HyjW+lRWwfbYgiGALKVnO8QklGL8lHcawpir4dWUOgNxjmW/8OF5XIxzfII2sYDDp4RQRskX+mzkp9nlyHiaTcOMXQAN3qy0/EpTC5M6gWbI4A0+mo5613LYnsiOKkME78Wz8qLVh4zpvo0LVEtqLyoZ94Iad2uoIsOE3z9vNa8TTwb1knytbQrSRFkPiEkFy/8YtDXTnLzoVyq2KfDawqSjhrwAbrN1KhkqLho14cuJTGIsSI5lWkx2bxOphTnwrRN1yrMUxOCHocWbm9JBjNN3QhRPM/0OMFvrci+H+HYLUCSw3+qWd5Y3u6DqH6hp4c8tPMnwGzrt6X9r4vYrIqoAqSTy9LEpobKBYg/16CIYG6sF6CBtwHALNifSO+EiO+f921NvFarFQo9kmrFJjDZZ7ZmvscBIvmOSy8WKJk/tMMHC+6fQnrPRxhAA9rFYMUslWfKZW3KmW0GLrmz3VZwwx9VuDXYMqk1/lo0tTawwoWAyldrLEFSeZnBAzYAjCHMP5xZsnfAVICmPZ1A04wEAY8zj//TSe308uSNeAUNcCv0MECdejMwJ0gQCsCwb3vneP8aTu/eJVfvM4vTvKLN/mFk1+8zS9+yS/+VTQomi7atovG7aJ1u2je5u0/5pou/MhPl1TRx8f/A1SGVlkAXQAA</properties>
+<properties xmlns="http://schemas.myeducator.com/properties/symphony/officeprops">H4sIAAAAAAAAA6tWKk4tLs7Mz8tMUbJSKqnIys3Iyq8oM09NLzTIzK0oMsgtMCszNi2qNDM3SClQqgUAv2VUYjAAAAA=</properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5599,16 +5774,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<properties xmlns="http://schemas.myeducator.com/properties/symphony/officeprops">H4sIAAAAAAAAA6tWKk4tLs7Mz8tMUbJSKqnIys3Iyq8oM09NLzTIzK0oMsgtMCszNi2qNDM3SClQqgUAv2VUYjAAAAA=</properties>
+<properties xmlns="http://schemas.myeducator.com/properties/myeducator/atlas_log_common">H4sIAAAAAAAAA7VYa3PTWBb8Ky5X7ZetJHXfj3wLIbBAAoQkBGZ3a+rcV6KJYxlbJg+K/74tO7COHTMaJlAUyLIs9T23T59ufekP6rP+9r+/9GN/m2/0c3+7vzOZVGfDyzxsei+GVVPRoLrNqb/Rb3CJ9oJbZqQXzGz0U397OB0MNvrn+B0pazylkAoprZ1ULrGsbRbKOm6iZoWxFDjOkGsv7X/dWHzsaT2+CHV90XsyrQbN8uMsUyuP00IK6VMMlmwJvsRIIkrrC+FXwlLQLlCwKdpYOC097u24HuVxU+VJ72SUqFleoRLMidkjv/Q/TfOkqephe1zhTP+FO7NP3/5xVW5OWqRxnGc3wI+tUVZyx7nEcy7rVJVq/oXnnlnHFGN6o39RDdvbHH6770Z/+tB966thHrendXUqn9Fuvfd2jNNASy2U5mbUriTnTWoGNGmB1MMG+4aT+DCqq2Ez6W8z/KIqpYrTQXMz/zgd03w9+BCr72Ud/f8wXzd5PKTB77FO7UMks3qL8S2xyeQWv97a2XrP8YyzMc2+zjcvz8PzWL2pXj45+ONEHPFY7e++HITLg+/nDtnLp/sn58evj/duXgzZ1uuQp2Ecq6sKpNmbnO6ecKf05pO0J569kDf7I5E2dw95fMavzyOlqw/P08Fz/YwdXB3Jd5Pyyb/8WOfB/t6HUdodJt8+7ubDztHw7dWF2an0u61Dfrp5e8Je/bZLbrJ3vbk3uTg7ONx6efikOat23vvd3Y+bB8e/vTl9tfv5yeTp8ze3zeXeq/33+mzv4jRNPm1+vh3Kq/Hb4/2pOKpG568/jOjm/dMt+dGcu9vfj+jNWN8Op89Oxq+u9s378C929OnQ3FbT8J6eXrz+4D5/RIkmQxq1u3U23+IzwSRPzJM1jgRj/Fq0xJtv5Wwf28+fAjWxZfkL83r8LsdKnz6/bm+W43zj+qBzf3R30c4/t/8z7PVSXTXbvXb/+jPuTQftPRn+aN1u1nQ0qKnFcDye5v5X3IC+t/q3fZ//7HcQOoErDS7EQ2M9zndEaK/6Om/AlGyQ2uVodWYyoMm9c1phbQLtr4XInDkdAnMxEYvqWwP6eQO+GeVhTr1jmlwsdp5k6F1n7zqvwbdVup4RtT0e0mX729fTy5DHvbr0BnWcUXnO/sGARpO23woNJvkOJ7oxBWuNLJlZypZlV0R0jopgCudJR52CCc5KbawNSzh3B/XkQZzGoCf+Js62wN/KmWUsLBnmpBE2aql0EkpFVBSflKXiE3TOGOOyk4x3LSeut2wZJr8Hc7+mYe+4bmiwvorZMwJrfRHa4q/MTGlFsWhb2oMiscPaRlUii5Y717WKXnkhfw7eQvFiVqIoiYdryH/SPhhTsjJZcp+UD5xFdB0pmUq0UpWuxfPaCb+MTtxDt/M5j+ksY1bG+rL9r9TjS7qT9TXFTElxQ4VQSCpJxxSIMou8FMODbVUhOktME4+Ylcx0LKZQ0hrxOHAXihuy4VLlqHxBi0tHXONAYueyswLAQVU5G9OaG8NTx+KC3E6vbL28h/aArnsQ3ZkZaepeNQc9m17rqyuz9dGQY/AeJQQbU/KJccYVSEJcGZm0wD/KJBmKy12rC3UzK530k3gXyuulMDZprrInI5QHD0hr2BvmmKMgJKnoDGcspqi9X4a7trzO4+pluOo+3Gr418tro/DOmMA9MQ7KQa6hBkXraIVRCorgIQ8ggjfSSfJdy+u5eDS8C+UFlOwYmawjsxBDyUFVW+DubMsMKKkTlJzxGAPZBN21vJAtb5bh6jXyHwdVizncYBBAzCYNNdMfjCzhg+PORJmFzVxihnIcQmzJ+ZjBFQ9TbYwIEnabB9mxxEoyxdUjYl4os7ZB5WRhvSOUNxTNi/RZKUgxhFdqHwtorMGabGAQliGvKzPopcwKZHMP8mw09EZj0KEa4ahrlQGZxcAwJMDX1hQkJxSIAM6SiSaFrAuTLhowpyCAdIasFft1zDC2cOhtApNlgsHyRcEW8MgFQocNPBrBoGs5Jm1oWYvXM8Oq1cnxOMxgmWKSDtGMYGDIgM2WayasAmRhgkUw4twjuUWtc+zqv7TGTrnHY8YiYpM8SaG91SnDUzifeKaiQimZjDJeFaKQGK7K4NCy11lHDLhixVcQ24fG86QzIYpWmpOA31FWwNBi8wOyJmBKFVmGvyoSnFaxxIB50LG6GplBrQ7nn8C6qMSIPA5WvHhAUXCJSSAroLsgFz7oggJblwOkT2CedDVpgOoBdhmquwd1t74cDXKTe7vjnKqm9w4jY3j2A7cbpIyOQ365VcIi5BYYMoi+8W22Lx60xQyQLhVMk9DR7SITSb6abf461Hu6mznaJ9pIkAIjM1rJeWsdw9yzxmOsyQhRkNkp6akjV4FU2dXx5u8jncvAbj2di8Ed4KM2Lv6AsOh6ADSaBCnjDOKNwqAj2OEYbcpJ4MsQtBGavBcdFQwGVBqzQtifBbxQ4BKhX3C4OvNiuS9apBwNMxRcSkH6JCULBoEXPq4gXXYssIQE+pX4yO/nx7fflYsuv4GOc9DjP2EwYwoaAJdASKkYxPAP8EAmgdmmGJcUZbgIaJhIEqayY8TQsNCGrwyKvwd7sdjoN+kyqglUGL3BI5VnBCWYBoB2oTBGAUFE8yCC6hg1gFo6u9J3nD8kZ99cZfdSx0SxHWBMORm9JUwNJoqLETG4JYm2ySmRik6cDPHl5L6u1OgAOOnHBL1QaCShwJWLmL0BwxkGM3ILjJCn9l0r/LCymlvstSgpiI6hA5hhffgK5vsR9MWCbe/l65hzmvQk+8f6ChsJfxKjELDySEtC6qSSLsnpggpnRHoXIMPMc+IOsb8zWiNWXc9j0cKySOBuOyFkkpALGxXmHysFjViUyBKDznLmJIM2U2daWCZWhe6RaAEl894VS5QlEzmj5qx9iaecZagrvBCUj0OjOQSE264jWlsO6/OrCp0NLDAmcokGOI0UJLhWIWCGa5E1yyInWHwobpYKCbBjoS30WazYtUcqtCESxSjEZI1kjyQqiy0yKugrxE5oRA/JSpAC3WlIdkx4uo3cD8jzz/TfAlhEZcohOnJQONAWlotIQyQUtIKicUxlpH54DamJTMdXkwCrmVkVOLlkh9oBgtBxXp2drwv/w16cThp8HP/AKRuFSS7hMLLNyrugUwgc7anh9EATmTWPKivdvs+E0V/m9pqSGy4xqX7tKhbfEhvHXeQITQYTjRfCpsA5ATfWwYRTaAP4QZ1tsYgbyy9f1mwFFqHNA4u4//ZlOU2VerxuPfOE+KPsDVuKiYldED4X4TnXkEaoYfZYHnoPqTEES8wgF6S47KrWboZDpFixrY+8joXtyDCxiC8xQGSM4NKhVSE8HFbU84RvsVtZKJeLjqGsmNm12+GQl1fNoX5QembR6zMNpkhis2XcKdASu/58T2TrykVgQcmYbDIaeVdlKJEPyZeE6J5cxHyHadQW/3bcE7QTN6s6+gsWs7gxkpRPHoqqE8YvKATni8BuU8k6k9ZwOsU5xE+kN0ex48YojRi/8pLyl28MLC+sg2FwZsXrZAxTsPfod8FFNPCYIgeF8NEGUzig/tf/fv0fftpNPNofAAA=</properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<properties xmlns="http://schemas.myeducator.com/properties/symphony/submission">H4sIAAAAAAAAA6tWKi5Nys0sLs7Mz8tMUbJS8rTIjnQvNAoq8DPNV9JRKk5FSJVUZOVmZOVXlJmnphcaZOZWFBnkFpiVGZsWVZqZG6QUAJUnlWbmgJQWlyQm5aQq1QIAFZHv118AAAA=</properties>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<properties xmlns="http://schemas.myeducator.com/properties/myeducator/atlas_meta_I8g7DPjwfyUt">H4sIAAAAAAAAA91cC2/bOBL+KzoDB7SANxu1qbpndLtIbCl+5IU+9m5xXRS0TcdC9fBKchKjl/9+w4dESpZEmnaATQsUkUWRMyRnvo+aIfW9g9LUv41CHGWdXrQOgm4njOfrAHd63/nV12gdTnHS6XWO4d+bN3an21nFfpSlnd5xt5PAI3D1X3gcpym6hZodzw8CPLemG2uxjmaZH0dQJ0IhKfu4xDiz8IOfZqmFork1w0EAVwm2ZnG4CnCG4eE0wyvWatFCr5OSql+hzldah+iBEhSmRNcERbf4K0oStIFqncFJb3ICDwyc3ugt+Wsf90b2a3oFt2xyb/jK7g1t+xe4HMPlmFz+2eVSuLYXMYrSzuPjn49QkqH0G1NqjjPkgwa9zrs4sLLNCv+K3r8L/PejiPbHGpx0rXWKrWyJrf7156tPxUhYWWzNUDBbByhj5Wx8rXhhzQIfJiK1/IgWzFGGrBRnR6TlD3iBExzNWB02aPy5L50+rWiNBl86MIrBOoxIc1Q4KxmQpjI0DXBZvp8dQffnsV9M/9InpsA6/r8BGUN/Dr9PT8UUXhUKB/EMkU6lkk3YYBM4XcFN7MVJCHKgyq9E4Q/89gva+D8GJy87sv1wOUSQMKVP0Ic7FKwx6SwfWstPrSjOoKdJgmeZUAyK+LOpVFgY69EbYlgoW5OJA4t67BZCz7aELpjuZBbnmrJncQRmEaVsxkuSXzVK7jdKloTOY1wSG2yspLCHMzDeM2bHQpfCXFK5XCj0uqIQMW/8QGa+326cxF6WOFjl9jKPI0ysZ4GCFHc7d/4cx3nZQxiQXrIfMDoL/zb/BZ0h085+QI8/IoI57OcqiRdDSQTgkL/Y5L9kteEXztb8QTKoSsd0Jcf8+PmyxS2zOEMBWDiivoSgLnepfCCUXknM3DoN43WUHdgvXeGXZ2LaqbxPRG0Td3Rr3fFM5Y5us0u4pu54pumO7bILd4R51nPGM7Uzugpn7IOz9UvO6JacUSrf3Rklk0TUrJ65M3qSM57+7n44PXdbHBLd4QQmBqYCFgo4d0ptbxzRagaOSFr+nJLlyWpDVywrlGb0sQWscwq1QjC3JdjCzeWnbnEzIfTYpbXyW96of22lYDuFD6XW+UlvdNLq8Z7w+L6wrVPeJusb/CHmiviCa2cE8GoRoK9CAK/ZCz0FApw0eWJfEwHaZRcIwI1LDwX6ahTwFCgwAC8flFDAK6GAVK6j0KBJIWredOkLKoEJ0WU0USrBZJhk8aTUy2v145VPi5ul12EQ9zxuySnRouSDzxuNxhIaXZ7+p4RECx88mBSE6MEP12Hh7Su0IS9P5Jn8Fh8l6vo5Su20bgAE+dkYrdpAZCxAZCBs4xI9yN2Q1TdBkXEtigxUKDJu9uSx6TpioIki7bILFAGj0HPYgRpBxgoE8QAhvBKCjEsIIpXvvo4IUALumzXN+jP344nsx6OrBj/2o+frxxPhx67kxyD4gH48qfVjV+XHk2Zfmpj6savpx+2yhR+PrvT82FX78WRnP54czo/TEGzyx3XkgVMJoo28bWdexvdAytGmHDwDM8ijZ9YcL9A6yPC84rFURt+xYD00S/wMJz7KfbcqTfUOQOuQFzLi31Ec/cRlykqxLr2lTb2bvr+CQe1Zf8TrpLCpcA1TSTqMpimgBbSfCEPJligjEATdzcp2OHCIHlOqHKzqhHpzch/B7C1xwsSLgGEpKHH07ufp+9Y4oFMAjlcXB2TdJAFf+nLKp90kJujUgY6njAk6zXE5px10Gp3f040JtsouxwRHnqZsjaigowhEOCU95BCEo6lE42uHthIjQLdROTRZUkUq11HI1XgPGji9wdvG9yBWuu97UH3Uvmz9zxx7XacUJ60gb12kdJUA9fgr6B59L8yWMVS/X8Ym+FuWqIO+NOxpXfBobRsEu08Awa4BBAuN9XHYFTh8Loz6U3n8DwDDbi0Mnytjwc1Q6JrC8LluLLhVthwLroCw3ShZIxq8M/65e+DfuRqQVQrVhKcdZXi6WaFGQNZXyGlUxdGcJk+DFVyn5zazAis9BCtkra74zDnBc7bC9a28UAnY780K2zJ1mKESI1ewg/eWSL4nlyil9RPygsVf29mr+ou8yUs55J/f/CBC/qdyyP8jDfmTQZgCHeT9p89JCr08PDl5reRUR03lIesCP4l7cp9LBazfcIu0L26Lvhc0lyp5zhM8N9zKdlRXWkapjlqCGypTHc0k45kS3FA31dEqu5rq0CW5oUayYwcI94wgfKgmNpUS20zr7cG0QzWxqRSqSQE55imgoQ7JeWSzU3MKiJYeOgX0QxHc8JUtGO73i+vryeebEr+x3XIWAmrCcz+jUbbo1poi4qhxJHHEmX0MC6nXnPRgtvwkzdkmB9rAT5XZZRpWLgnLW0xwCA5P7sgB6YMyB4yHHnXIW9GYsh+osvpvNiCqgPyRMNo+3xJolZo1QXwQUAf5IxXkkzFowl1SZgb6I03QV0kvYJ9bq6Z0NeiTxtt3nTEDL6sj7zorynUUUhOAUqFzakH1yrAyHUV0Qkz5xtFGqC0eMETb3Oi3nb+cRaJQ88wxd2Afm0T5l8BAgMMe8pPKEFXj/xq7Z2sh62AbhERyYBu6mc5PAN0wrE+fFbCPC8weS5jNBox1GdYHfHjpO4BRTsA+rkPusTIpAEPQGJmHMjPkHuumBRTSzRIDY43EADTevl6n0yapIq/YaZmOIhrJAZUi0gb8em2kB3RU0koPAC0NYF3WmCDg5U+WIiiB1TPHblfG7j2zBDKg88HZGbhZ5KFu23V6UDSXkg0C0kWUCCzt29OgumuC6kaJBgnaJ8I7borAJtt/vGXQRsmGenyfKLMNLQjrGuP7RDffoJBuknGYaGQcdgdVdx9QnWjkHJSEs510qLDOTlmHiUbWYScOrGpT4cDm6dLKPAChuC2Ek5cfgnBoJGZV8dEfjnU8mXX2zkM0vkiY0k9lx99hmaeSzCBdydcW93625CEZ/lbx9JkMsiUSJpaOUVYevvQpMhnt9Pf3TGVITHqxlcvIbfIQPOrV8+iFMqnRwmSeMY9e6KY1FNJNExsXGomNnVjCM2SJC43kxu6k7u1D6hca6Q2VSjX5jbJKuyU4LrQSHOwUd3OKg5cfgksrpBHgO8zfWTCaLaUdjz8StY7lBEiFU3nu40vnD5wC/vmMR8Qed+LFtwmG8SP0SvZhwVD9tYZ1CFQ+Pnp9zNH0KobaFKrv/RTrkJ6U6SgT8NC/XTKw/k282rSB8VjKMlwKuxnJO/3xwwzjeWq9Pv6nCQqP6/MMl8rzLy2R/rEqz9B4ju5S9wSMQnqBwrqBqkuNIzCqiL4nR/TH5Yi+pxvRv9Q5PJd//6ERWYoHzKBlgMErQj/CxG0ofjTs2CeTAKufAIMTEKd55ngysBVb+Ju+hLHC8SooLdCXxNebzjnUbSGyy3uIGPjUIQaRt7043+MkgAik009k3POpFclfPjZPcRbANtiJWui7S+hf7NC5ktO1/AxE22xB/6Fz8DMxOyJg1+7duVKnA1o26tumu3eutNMB7dLN0gFXOukA1fYd2ymrUlrkap4VuNJJBygUKT7C06SN9ICOSnrpAAcWqS3nBXj5vrBfnw6gr+wKaHveBODaO58jIOivSBIcggvqVpCK/EEjSex7XKHKEdJhhacgCdeEJMyyCIIlroVTVc8rkDlumFI+HmZphVqeuFanFVpOEhjzxLV2WqFdukla4VonrbALS7jtLNGsiE4yYWeWcPdhiWudZMLuhyrsPU5VXOulFZye20JceflTHGrYijr/0BTm2Yc89nAYBuvWvs6Y0tfu5ypYHMYj9gdl5+yTik8R7zcgqr9BxF+w3s12xJ8m6SiJpMwMeACxGgnYg/q8euq7UWcCWs4YGFPfjXYmoF26aSbgRicTsAv9eYb0d6OTCdj9WIG9x7mCG51MwM6M7O3DyDd6mQAKOS2ZAFZ+yEyA7Lj5tp8SDbZ489/5ZITo93WIEuKC93HyjW+lRWwfbYgiGALKVnO8QklGL8lHcawpir4dWUOgNxjmW/8OF5XIxzfII2sYDDp4RQRskX+mzkp9nlyHiaTcOMXQAN3qy0/EpTC5M6gWbI4A0+mo5613LYnsiOKkME78Wz8qLVh4zpvo0LVEtqLyoZ94Iad2uoIsOE3z9vNa8TTwb1knytbQrSRFkPiEkFy/8YtDXTnLzoVyq2KfDawqSjhrwAbrN1KhkqLho14cuJTGIsSI5lWkx2bxOphTnwrRN1yrMUxOCHocWbm9JBjNN3QhRPM/0OMFvrci+H+HYLUCSw3+qWd5Y3u6DqH6hp4c8tPMnwGzrt6X9r4vYrIqoAqSTy9LEpobKBYg/16CIYG6sF6CBtwHALNifSO+EiO+f921NvFarFQo9kmrFJjDZZ7ZmvscBIvmOSy8WKJk/tMMHC+6fQnrPRxhAA9rFYMUslWfKZW3KmW0GLrmz3VZwwx9VuDXYMqk1/lo0tTawwoWAyldrLEFSeZnBAzYAjCHMP5xZsnfAVICmPZ1A04wEAY8zj//TSe308uSNeAUNcCv0MECdejMwJ0gQCsCwb3vneP8aTu/eJVfvM4vTvKLN/mFk1+8zS9+yS/+VTQomi7atovG7aJ1u2je5u0/5pou/MhPl1TRx8f/A1SGVlkAXQAA</properties>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E15DE9C6AF1F134B97645F2092486681" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ba75532e288b739d638f71c0f388d97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71eca277-2ec3-43f1-9741-8bf9b43ea82c" xmlns:ns3="46fecfc9-cec5-4a6b-a2f1-d7e2aaa3c568" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0fdd8e29b762e942eafa5d1a63b9c2ee" ns2:_="" ns3:_="">
     <xsd:import namespace="71eca277-2ec3-43f1-9741-8bf9b43ea82c"/>
@@ -5787,12 +5964,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<properties xmlns="http://schemas.myeducator.com/properties/symphony/submission">H4sIAAAAAAAAA6tWKi5Nys0sLs7Mz8tMUbJS8rTIjnQvNAoq8DPNV9JRKk5FSJVUZOVmZOVXlJmnphcaZOZWFBnkFpiVGZsWVZqZG6QUAJUnlWbmgJQWlyQm5aQq1QIAFZHv118AAAA=</properties>
-</file>
-
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
-<properties xmlns="http://schemas.myeducator.com/properties/myeducator/atlas_log_common">H4sIAAAAAAAAA7VYa3PTWBb8Ky5X7ZetJHXfj3wLIbBAAoQkBGZ3a+rcV6KJYxlbJg+K/74tO7COHTMaJlAUyLIs9T23T59ufekP6rP+9r+/9GN/m2/0c3+7vzOZVGfDyzxsei+GVVPRoLrNqb/Rb3CJ9oJbZqQXzGz0U397OB0MNvrn+B0pazylkAoprZ1ULrGsbRbKOm6iZoWxFDjOkGsv7X/dWHzsaT2+CHV90XsyrQbN8uMsUyuP00IK6VMMlmwJvsRIIkrrC+FXwlLQLlCwKdpYOC097u24HuVxU+VJ72SUqFleoRLMidkjv/Q/TfOkqephe1zhTP+FO7NP3/5xVW5OWqRxnGc3wI+tUVZyx7nEcy7rVJVq/oXnnlnHFGN6o39RDdvbHH6770Z/+tB966thHrendXUqn9Fuvfd2jNNASy2U5mbUriTnTWoGNGmB1MMG+4aT+DCqq2Ez6W8z/KIqpYrTQXMz/zgd03w9+BCr72Ud/f8wXzd5PKTB77FO7UMks3qL8S2xyeQWv97a2XrP8YyzMc2+zjcvz8PzWL2pXj45+ONEHPFY7e++HITLg+/nDtnLp/sn58evj/duXgzZ1uuQp2Ecq6sKpNmbnO6ecKf05pO0J569kDf7I5E2dw95fMavzyOlqw/P08Fz/YwdXB3Jd5Pyyb/8WOfB/t6HUdodJt8+7ubDztHw7dWF2an0u61Dfrp5e8Je/bZLbrJ3vbk3uTg7ONx6efikOat23vvd3Y+bB8e/vTl9tfv5yeTp8ze3zeXeq/33+mzv4jRNPm1+vh3Kq/Hb4/2pOKpG568/jOjm/dMt+dGcu9vfj+jNWN8Op89Oxq+u9s378C929OnQ3FbT8J6eXrz+4D5/RIkmQxq1u3U23+IzwSRPzJM1jgRj/Fq0xJtv5Wwf28+fAjWxZfkL83r8LsdKnz6/bm+W43zj+qBzf3R30c4/t/8z7PVSXTXbvXb/+jPuTQftPRn+aN1u1nQ0qKnFcDye5v5X3IC+t/q3fZ//7HcQOoErDS7EQ2M9zndEaK/6Om/AlGyQ2uVodWYyoMm9c1phbQLtr4XInDkdAnMxEYvqWwP6eQO+GeVhTr1jmlwsdp5k6F1n7zqvwbdVup4RtT0e0mX729fTy5DHvbr0BnWcUXnO/sGARpO23woNJvkOJ7oxBWuNLJlZypZlV0R0jopgCudJR52CCc5KbawNSzh3B/XkQZzGoCf+Js62wN/KmWUsLBnmpBE2aql0EkpFVBSflKXiE3TOGOOyk4x3LSeut2wZJr8Hc7+mYe+4bmiwvorZMwJrfRHa4q/MTGlFsWhb2oMiscPaRlUii5Y717WKXnkhfw7eQvFiVqIoiYdryH/SPhhTsjJZcp+UD5xFdB0pmUq0UpWuxfPaCb+MTtxDt/M5j+ksY1bG+rL9r9TjS7qT9TXFTElxQ4VQSCpJxxSIMou8FMODbVUhOktME4+Ylcx0LKZQ0hrxOHAXihuy4VLlqHxBi0tHXONAYueyswLAQVU5G9OaG8NTx+KC3E6vbL28h/aArnsQ3ZkZaepeNQc9m17rqyuz9dGQY/AeJQQbU/KJccYVSEJcGZm0wD/KJBmKy12rC3UzK530k3gXyuulMDZprrInI5QHD0hr2BvmmKMgJKnoDGcspqi9X4a7trzO4+pluOo+3Gr418tro/DOmMA9MQ7KQa6hBkXraIVRCorgIQ8ggjfSSfJdy+u5eDS8C+UFlOwYmawjsxBDyUFVW+DubMsMKKkTlJzxGAPZBN21vJAtb5bh6jXyHwdVizncYBBAzCYNNdMfjCzhg+PORJmFzVxihnIcQmzJ+ZjBFQ9TbYwIEnabB9mxxEoyxdUjYl4os7ZB5WRhvSOUNxTNi/RZKUgxhFdqHwtorMGabGAQliGvKzPopcwKZHMP8mw09EZj0KEa4ahrlQGZxcAwJMDX1hQkJxSIAM6SiSaFrAuTLhowpyCAdIasFft1zDC2cOhtApNlgsHyRcEW8MgFQocNPBrBoGs5Jm1oWYvXM8Oq1cnxOMxgmWKSDtGMYGDIgM2WayasAmRhgkUw4twjuUWtc+zqv7TGTrnHY8YiYpM8SaG91SnDUzifeKaiQimZjDJeFaKQGK7K4NCy11lHDLhixVcQ24fG86QzIYpWmpOA31FWwNBi8wOyJmBKFVmGvyoSnFaxxIB50LG6GplBrQ7nn8C6qMSIPA5WvHhAUXCJSSAroLsgFz7oggJblwOkT2CedDVpgOoBdhmquwd1t74cDXKTe7vjnKqm9w4jY3j2A7cbpIyOQ365VcIi5BYYMoi+8W22Lx60xQyQLhVMk9DR7SITSb6abf461Hu6mznaJ9pIkAIjM1rJeWsdw9yzxmOsyQhRkNkp6akjV4FU2dXx5u8jncvAbj2di8Ed4KM2Lv6AsOh6ADSaBCnjDOKNwqAj2OEYbcpJ4MsQtBGavBcdFQwGVBqzQtifBbxQ4BKhX3C4OvNiuS9apBwNMxRcSkH6JCULBoEXPq4gXXYssIQE+pX4yO/nx7fflYsuv4GOc9DjP2EwYwoaAJdASKkYxPAP8EAmgdmmGJcUZbgIaJhIEqayY8TQsNCGrwyKvwd7sdjoN+kyqglUGL3BI5VnBCWYBoB2oTBGAUFE8yCC6hg1gFo6u9J3nD8kZ99cZfdSx0SxHWBMORm9JUwNJoqLETG4JYm2ySmRik6cDPHl5L6u1OgAOOnHBL1QaCShwJWLmL0BwxkGM3ILjJCn9l0r/LCymlvstSgpiI6hA5hhffgK5vsR9MWCbe/l65hzmvQk+8f6ChsJfxKjELDySEtC6qSSLsnpggpnRHoXIMPMc+IOsb8zWiNWXc9j0cKySOBuOyFkkpALGxXmHysFjViUyBKDznLmJIM2U2daWCZWhe6RaAEl894VS5QlEzmj5qx9iaecZagrvBCUj0OjOQSE264jWlsO6/OrCp0NLDAmcokGOI0UJLhWIWCGa5E1yyInWHwobpYKCbBjoS30WazYtUcqtCESxSjEZI1kjyQqiy0yKugrxE5oRA/JSpAC3WlIdkx4uo3cD8jzz/TfAlhEZcohOnJQONAWlotIQyQUtIKicUxlpH54DamJTMdXkwCrmVkVOLlkh9oBgtBxXp2drwv/w16cThp8HP/AKRuFSS7hMLLNyrugUwgc7anh9EATmTWPKivdvs+E0V/m9pqSGy4xqX7tKhbfEhvHXeQITQYTjRfCpsA5ATfWwYRTaAP4QZ1tsYgbyy9f1mwFFqHNA4u4//ZlOU2VerxuPfOE+KPsDVuKiYldED4X4TnXkEaoYfZYHnoPqTEES8wgF6S47KrWboZDpFixrY+8joXtyDCxiC8xQGSM4NKhVSE8HFbU84RvsVtZKJeLjqGsmNm12+GQl1fNoX5QembR6zMNpkhis2XcKdASu/58T2TrykVgQcmYbDIaeVdlKJEPyZeE6J5cxHyHadQW/3bcE7QTN6s6+gsWs7gxkpRPHoqqE8YvKATni8BuU8k6k9ZwOsU5xE+kN0ex48YojRi/8pLyl28MLC+sg2FwZsXrZAxTsPfod8FFNPCYIgeF8NEGUzig/tf/fv0fftpNPNofAAA=</properties>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5800,9 +5975,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D1B5046-4C90-40E3-987A-E86D2C61E649}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5001886E-4593-40B4-B3F3-6C2A6DF2829C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.myeducator.com/properties/myeducator/atlas_meta_I8g7DPjwfyUt"/>
+    <ds:schemaRef ds:uri="http://schemas.myeducator.com/properties/symphony/officeprops"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5816,31 +5991,30 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5001886E-4593-40B4-B3F3-6C2A6DF2829C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D3631B-33EA-4C6B-B585-D50EBAC87DD3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.myeducator.com/properties/symphony/officeprops"/>
+    <ds:schemaRef ds:uri="http://schemas.myeducator.com/properties/myeducator/atlas_log_common"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8871F1A-E834-4A33-A057-CD18EE30C482}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9894BA46-4E28-4D19-8672-B466FE17BB86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="71eca277-2ec3-43f1-9741-8bf9b43ea82c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46fecfc9-cec5-4a6b-a2f1-d7e2aaa3c568"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.myeducator.com/properties/symphony/submission"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D1B5046-4C90-40E3-987A-E86D2C61E649}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.myeducator.com/properties/myeducator/atlas_meta_I8g7DPjwfyUt"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92F2D8D-0D29-4471-85E9-B266BA5536F0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5859,18 +6033,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9894BA46-4E28-4D19-8672-B466FE17BB86}">
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8871F1A-E834-4A33-A057-CD18EE30C482}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.myeducator.com/properties/symphony/submission"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31D3631B-33EA-4C6B-B585-D50EBAC87DD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.myeducator.com/properties/myeducator/atlas_log_common"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="71eca277-2ec3-43f1-9741-8bf9b43ea82c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46fecfc9-cec5-4a6b-a2f1-d7e2aaa3c568"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
